--- a/demo/ams_benchmark/opf/cases/wecc_uced.xlsx
+++ b/demo/ams_benchmark/opf/cases/wecc_uced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/icebar/CaseStudy/opf/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/wecc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE64B3C-D671-7A43-ACE8-7D9CB3B0AD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F434E577-7553-CD42-B0AA-6FCA383D27B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId6"/>
     <sheet name="Shunt" sheetId="5" r:id="rId7"/>
     <sheet name="Line" sheetId="6" r:id="rId8"/>
-    <sheet name="Region" sheetId="7" r:id="rId9"/>
+    <sheet name="Zone" sheetId="7" r:id="rId9"/>
     <sheet name="GCost" sheetId="8" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="10" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="11" r:id="rId12"/>
@@ -21840,9 +21840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH2" sqref="AG2:AH2"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22049,10 +22049,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
@@ -22153,10 +22153,10 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -22257,10 +22257,10 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -22361,10 +22361,10 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -22465,10 +22465,10 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -22569,10 +22569,10 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -22777,10 +22777,10 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -22881,10 +22881,10 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -22985,10 +22985,10 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -23089,10 +23089,10 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -23193,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -23297,10 +23297,10 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -23401,10 +23401,10 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -23505,10 +23505,10 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
@@ -23609,10 +23609,10 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -23817,10 +23817,10 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -23921,10 +23921,10 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
@@ -24233,10 +24233,10 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
@@ -24337,10 +24337,10 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
@@ -24441,10 +24441,10 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
@@ -24545,10 +24545,10 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH27">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
@@ -24753,10 +24753,10 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
@@ -24857,10 +24857,10 @@
         <v>0</v>
       </c>
       <c r="AG29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH29">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -24873,9 +24873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG8" sqref="AG8"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25088,10 +25088,10 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -47576,7 +47576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
